--- a/data/long_bre/P24_3-Estudios-long_bre.xlsx
+++ b/data/long_bre/P24_3-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-27,11%</t>
+          <t>37,25%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-6,16%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-20,18%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13,68%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 12,16</t>
+          <t>-5,19; 8,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 9,01</t>
+          <t>-9,94; 8,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 2,33</t>
+          <t>-11,9; 3,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 320,75</t>
+          <t>-7,72; 11,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-39,5; 101,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-55,82; 19,33</t>
+          <t>-60,74; 320,91</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-54,4; 108,73</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-49,38; 31,95</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-39,83; 127,39</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,92</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,2%</t>
+          <t>-6,72</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,28%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,48%</t>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-6,21%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-6,05%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-10,34%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 11,16</t>
+          <t>-10,63; 14,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 4,96</t>
+          <t>-16,41; 7,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 7,45</t>
+          <t>-14,13; 5,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 17,53</t>
+          <t>-22,71; 7,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 7,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 12,72</t>
+          <t>-12,57; 20,54</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-21,17; 11,08</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-19,61; 9,28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-31,08; 12,98</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-10,53%</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>53,82%</t>
+          <t>-16,92%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>45,92%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>52,03%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22,95%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 6,61</t>
+          <t>-14,46; 7,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 13,9</t>
+          <t>-3,82; 15,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 14,82</t>
+          <t>-0,09; 15,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-59,76; 53,66</t>
+          <t>-7,76; 17,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 161,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 145,17</t>
+          <t>-59,79; 63,59</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-26,19; 198,27</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 136,9</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-30,27; 124,83</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 5,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 6,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 5,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 89,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,6; 77,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 62,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,82</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-9,44%</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>12,28%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12,73%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16,49%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16,3%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,08; -2,72</t>
+          <t>-4,76; 6,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 3,56</t>
+          <t>-6,23; 7,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 5,49</t>
+          <t>-2,18; 5,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,59; -3,45</t>
+          <t>-3,61; 6,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 4,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 7,33</t>
+          <t>-40,05; 97,73</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-42,85; 106,76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-17,41; 62,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-29,45; 83,89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>-9,51</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>65,79%</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>-11,58%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-6,74%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-1,59%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-6,65%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,58; 10,5</t>
+          <t>-17,13; -2,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 7,05</t>
+          <t>-13,29; 2,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 3,1</t>
+          <t>-6,87; 4,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,81; 155,96</t>
+          <t>-13,15; 2,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 88,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,4; 35,11</t>
+          <t>-20,09; -2,8</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-16,15; 2,89</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-8,52; 6,29</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-16,47; 3,3</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-37,85%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-25,72%</t>
+          <t>94,83%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>38,17%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-4,28%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23,25%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 7,72</t>
+          <t>2,52; 14,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 0,11</t>
+          <t>-1,22; 9,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 1,37</t>
+          <t>-5,12; 4,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 133,95</t>
+          <t>-2,73; 10,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-64,85; 3,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-51,51; 17,51</t>
+          <t>19,94; 230,21</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-9,5; 118,68</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-36,19; 43,03</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-15,64; 87,95</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 9,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 13,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 9,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 13,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 19,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 12,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,95</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-34,67%</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-11,24%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-6,38%</t>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-48,42%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-25,74%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-36,3%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -0,24</t>
+          <t>-4,19; 6,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 4,12</t>
+          <t>-14,47; -1,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 4,14</t>
+          <t>-8,18; 1,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-61,65; -1,86</t>
+          <t>-10,37; 0,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-44,17; 45,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 55,89</t>
+          <t>-37,35; 113,8</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-74,2; -7,67</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-53,69; 13,55</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-65,82; 6,55</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-4,67%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-10,98%</t>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>11,81%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>7,03%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,82</t>
+          <t>-2,98; 11,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 3,09</t>
+          <t>0,5; 18,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 1,59</t>
+          <t>-1,16; 10,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,56; 90,59</t>
+          <t>-2,93; 13,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 33,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 14,24</t>
+          <t>-3,6; 16,55</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 27,11</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 14,81</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 20,86</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,32%</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,06%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>-41,69%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-17,32%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-9,43%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-4,16%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 0,68</t>
+          <t>-12,5; -0,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 3,22</t>
+          <t>-7,89; 3,58</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 4,02</t>
+          <t>-5,5; 3,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 0,85</t>
+          <t>-7,48; 6,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 4,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 5,45</t>
+          <t>-66,42; -3,33</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-50,06; 33,03</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-43,06; 46,11</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-35,62; 53,17</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,1008 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 4,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 5,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 45,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 54,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 41,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>7,18</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>3,59</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>96,84%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>30,31%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 11,81</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 11,86</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>27,16; 205,78</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-31,04; 151,19</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-9,87</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-8,78</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-12,1%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-11,11%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-16,13; -2,86</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-18,49; 2,01</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-19,19; -3,87</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-22,21; 2,68</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>5,19</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>24,43%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>57,07%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-2,82; 7,49</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 12,04</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-20,57; 88,7</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-16,19; 193,69</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>45,97%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-6,17%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-6,95%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>-1,42%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 6,39</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 2,96</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 1,98</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 3,37</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>10,07; 94,32</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-32,62; 31,31</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-25,75; 18,33</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-28,3; 36,05</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-5,53</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>-2,05</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>-2,45</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-6,88%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-2,67%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-0,73%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-3,4%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-9,46; -1,03</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 2,64</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 3,48</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 2,62</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-11,55; -1,32</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-8,16; 3,57</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-5,36; 4,77</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-10,94; 3,76</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>16,44%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>25,03%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>12,28%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>15,57%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 5,43</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 6,0</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 4,23</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 7,46</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-10,73; 53,17</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 62,63</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-12,91; 40,84</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-10,87; 49,91</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_3-Estudios-long_bre.xlsx
+++ b/data/long_bre/P24_3-Estudios-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -742,7 +742,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -844,7 +844,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1052,7 +1052,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1154,7 +1154,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1362,7 +1362,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1464,7 +1464,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1672,7 +1672,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1774,7 +1774,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
